--- a/ЗАВОДЫ/Черкизово UZ/2025/08,25/28,08,25 Черкизово Ташкент/дв 28,08,25 тшрсч чркзв2 от Лыгина.xlsx
+++ b/ЗАВОДЫ/Черкизово UZ/2025/08,25/28,08,25 Черкизово Ташкент/дв 28,08,25 тшрсч чркзв2 от Лыгина.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\28,08,25 Черкизово Ташкент\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Черкизово UZ\2025\08,25\28,08,25 Черкизово Ташкент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1645E7-0E29-4FBC-8AE3-CF9606DF009D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A525A0-674F-45C3-A9B5-669799BB4BDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AK$35</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="82">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -279,6 +279,9 @@
   <si>
     <t>ВЕС в бланке завода</t>
   </si>
+  <si>
+    <t>НЕ ЗАКАЗЫВАТЬ (новая площадка не аттестована)</t>
+  </si>
 </sst>
 </file>
 
@@ -299,17 +302,23 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -321,6 +330,8 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -5496,7 +5507,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
+      <selection pane="bottomRight" activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5883,7 +5894,7 @@
       </c>
       <c r="R5" s="3">
         <f t="shared" ref="R5" si="1">SUM(R6:R498)</f>
-        <v>8881.7999999999993</v>
+        <v>8683.7999999999993</v>
       </c>
       <c r="S5" s="3">
         <f t="shared" si="0"/>
@@ -5935,13 +5946,13 @@
       <c r="AG5" s="14"/>
       <c r="AH5" s="3">
         <f>SUM(AH6:AH499)</f>
-        <v>3242.6</v>
+        <v>3212.6</v>
       </c>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="3">
         <f>SUM(AK6:AK500)</f>
-        <v>3242.04</v>
+        <v>3212.3399999999997</v>
       </c>
       <c r="AL5" s="14"/>
       <c r="AM5" s="14"/>
@@ -7693,7 +7704,7 @@
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="7">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H21" s="14">
         <v>90</v>
@@ -7721,7 +7732,7 @@
       </c>
       <c r="R21" s="4">
         <f t="shared" si="8"/>
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="S21" s="4">
         <v>523.20000000000005</v>
@@ -7766,10 +7777,12 @@
       <c r="AF21" s="14">
         <v>5.8</v>
       </c>
-      <c r="AG21" s="14"/>
+      <c r="AG21" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="AH21" s="14">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="7">
         <f>VLOOKUP(I21,[2]Лист1!$B:$F,5,0)</f>
@@ -7781,7 +7794,7 @@
       </c>
       <c r="AK21" s="14">
         <f t="shared" si="9"/>
-        <v>29.7</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="14"/>
       <c r="AM21" s="14"/>
